--- a/MCP1_pg_mL/OUTPUT/20200714.AEDB.CEA.Con.Multi.MCP1_Plaque.Cytokines_Plaques.RANK.MODEL2.xlsx
+++ b/MCP1_pg_mL/OUTPUT/20200714.AEDB.CEA.Con.Multi.MCP1_Plaque.Cytokines_Plaques.RANK.MODEL2.xlsx
@@ -479,7 +479,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -539,31 +539,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0641676739748825</v>
+        <v>-0.0641676739748803</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0530342734120712</v>
+        <v>0.0530342734120703</v>
       </c>
       <c r="F2" t="n">
-        <v>0.937847733689061</v>
+        <v>0.937847733689063</v>
       </c>
       <c r="G2" t="n">
-        <v>0.845256751488048</v>
+        <v>0.845256751488052</v>
       </c>
       <c r="H2" t="n">
         <v>1.04058130270746</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.20992840754706</v>
+        <v>-1.20992840754703</v>
       </c>
       <c r="J2" t="n">
-        <v>0.227275003502138</v>
+        <v>0.227275003502146</v>
       </c>
       <c r="K2" t="n">
-        <v>0.132252480582142</v>
+        <v>0.132252480582161</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0822466913275531</v>
+        <v>0.082246691327574</v>
       </c>
       <c r="M2" t="n">
         <v>2423</v>
@@ -586,31 +586,31 @@
         <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0903202156067723</v>
+        <v>-0.0903202156067689</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0550126216341877</v>
+        <v>0.0550126216341875</v>
       </c>
       <c r="F3" t="n">
-        <v>0.913638577093541</v>
+        <v>0.913638577093544</v>
       </c>
       <c r="G3" t="n">
-        <v>0.820250945856368</v>
+        <v>0.820250945856371</v>
       </c>
       <c r="H3" t="n">
         <v>1.01765862480295</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.64180896899199</v>
+        <v>-1.64180896899194</v>
       </c>
       <c r="J3" t="n">
-        <v>0.101789511844488</v>
+        <v>0.101789511844499</v>
       </c>
       <c r="K3" t="n">
-        <v>0.138098719415234</v>
+        <v>0.138098719415237</v>
       </c>
       <c r="L3" t="n">
-        <v>0.087211558937905</v>
+        <v>0.0872115589379077</v>
       </c>
       <c r="M3" t="n">
         <v>2423</v>
@@ -633,31 +633,31 @@
         <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.0502437604757352</v>
+        <v>-0.0502437604757367</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0513314741945849</v>
+        <v>0.0513314741945848</v>
       </c>
       <c r="F4" t="n">
-        <v>0.950997580621999</v>
+        <v>0.950997580621998</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8599737186618</v>
+        <v>0.859973718661799</v>
       </c>
       <c r="H4" t="n">
         <v>1.0516558572932</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.978810004272886</v>
+        <v>-0.978810004272917</v>
       </c>
       <c r="J4" t="n">
-        <v>0.328489690795566</v>
+        <v>0.328489690795551</v>
       </c>
       <c r="K4" t="n">
-        <v>0.135052310913767</v>
+        <v>0.13505231091377</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0873310591021124</v>
+        <v>0.0873310591021154</v>
       </c>
       <c r="M4" t="n">
         <v>2423</v>
@@ -680,31 +680,31 @@
         <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0838335039499356</v>
+        <v>0.0838335039499347</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0509653140848864</v>
+        <v>0.0509653140848865</v>
       </c>
       <c r="F5" t="n">
         <v>1.08744782296828</v>
       </c>
       <c r="G5" t="n">
-        <v>0.984069738820242</v>
+        <v>0.984069738820241</v>
       </c>
       <c r="H5" t="n">
         <v>1.20168593853536</v>
       </c>
       <c r="I5" t="n">
-        <v>1.64491292666822</v>
+        <v>1.6449129266682</v>
       </c>
       <c r="J5" t="n">
-        <v>0.101042153221229</v>
+        <v>0.101042153221233</v>
       </c>
       <c r="K5" t="n">
-        <v>0.151347451145325</v>
+        <v>0.151347451145322</v>
       </c>
       <c r="L5" t="n">
-        <v>0.102934386277777</v>
+        <v>0.102934386277774</v>
       </c>
       <c r="M5" t="n">
         <v>2423</v>
@@ -727,16 +727,16 @@
         <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>0.278350221005569</v>
+        <v>0.27835022100557</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0510525577042484</v>
+        <v>0.0510525577042485</v>
       </c>
       <c r="F6" t="n">
         <v>1.32094874020433</v>
       </c>
       <c r="G6" t="n">
-        <v>1.19516853379676</v>
+        <v>1.19516853379677</v>
       </c>
       <c r="H6" t="n">
         <v>1.45996612603602</v>
@@ -745,13 +745,13 @@
         <v>5.45222871335996</v>
       </c>
       <c r="J6" t="n">
-        <v>0.000000106791655894464</v>
+        <v>0.000000106791655894461</v>
       </c>
       <c r="K6" t="n">
-        <v>0.231112338968871</v>
+        <v>0.231112338968868</v>
       </c>
       <c r="L6" t="n">
-        <v>0.185883653025863</v>
+        <v>0.18588365302586</v>
       </c>
       <c r="M6" t="n">
         <v>2423</v>
@@ -774,31 +774,31 @@
         <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0881959244291211</v>
+        <v>0.0881959244291323</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0515936115472119</v>
+        <v>0.0515936115472128</v>
       </c>
       <c r="F7" t="n">
-        <v>1.09220209013772</v>
+        <v>1.09220209013773</v>
       </c>
       <c r="G7" t="n">
-        <v>0.987155647707112</v>
+        <v>0.987155647707121</v>
       </c>
       <c r="H7" t="n">
-        <v>1.20842686608944</v>
+        <v>1.20842686608946</v>
       </c>
       <c r="I7" t="n">
-        <v>1.70943498205035</v>
+        <v>1.70943498205054</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0883162213067262</v>
+        <v>0.0883162213066921</v>
       </c>
       <c r="K7" t="n">
-        <v>0.132246425844961</v>
+        <v>0.132246425844926</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0872713930381449</v>
+        <v>0.087271393038108</v>
       </c>
       <c r="M7" t="n">
         <v>2423</v>
@@ -821,31 +821,31 @@
         <v>23</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0452086794533979</v>
+        <v>-0.0452086794533991</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0584506216904712</v>
+        <v>0.0584506216904721</v>
       </c>
       <c r="F8" t="n">
-        <v>0.955798005615159</v>
+        <v>0.955798005615158</v>
       </c>
       <c r="G8" t="n">
-        <v>0.852338186867556</v>
+        <v>0.852338186867553</v>
       </c>
       <c r="H8" t="n">
         <v>1.07181614248133</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.773450788818008</v>
+        <v>-0.773450788818017</v>
       </c>
       <c r="J8" t="n">
-        <v>0.439963722827639</v>
+        <v>0.439963722827633</v>
       </c>
       <c r="K8" t="n">
-        <v>0.139206270511479</v>
+        <v>0.139206270511465</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0858237136439737</v>
+        <v>0.0858237136439586</v>
       </c>
       <c r="M8" t="n">
         <v>2423</v>
@@ -868,31 +868,31 @@
         <v>24</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.0633183290551796</v>
+        <v>-0.0633183290551801</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0556315990821102</v>
+        <v>0.0556315990821098</v>
       </c>
       <c r="F9" t="n">
-        <v>0.938644628268401</v>
+        <v>0.9386446282684</v>
       </c>
       <c r="G9" t="n">
-        <v>0.841679260353815</v>
+        <v>0.841679260353816</v>
       </c>
       <c r="H9" t="n">
         <v>1.04678085783741</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.13817201194817</v>
+        <v>-1.13817201194819</v>
       </c>
       <c r="J9" t="n">
-        <v>0.256057589312366</v>
+        <v>0.256057589312359</v>
       </c>
       <c r="K9" t="n">
-        <v>0.138650976205927</v>
+        <v>0.138650976205936</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0876080710922045</v>
+        <v>0.0876080710922141</v>
       </c>
       <c r="M9" t="n">
         <v>2423</v>
@@ -915,31 +915,31 @@
         <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>0.113107899105055</v>
+        <v>0.113107899105064</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0482105225137975</v>
+        <v>0.0482105225137972</v>
       </c>
       <c r="F10" t="n">
-        <v>1.11975274674988</v>
+        <v>1.11975274674989</v>
       </c>
       <c r="G10" t="n">
-        <v>1.0187896193518</v>
+        <v>1.01878961935181</v>
       </c>
       <c r="H10" t="n">
-        <v>1.23072142671776</v>
+        <v>1.23072142671777</v>
       </c>
       <c r="I10" t="n">
-        <v>2.34612472977625</v>
+        <v>2.34612472977645</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0194898161153474</v>
+        <v>0.0194898161153368</v>
       </c>
       <c r="K10" t="n">
-        <v>0.12308260719344</v>
+        <v>0.123082607193453</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0833290187195422</v>
+        <v>0.0833290187195564</v>
       </c>
       <c r="M10" t="n">
         <v>2423</v>
@@ -962,31 +962,31 @@
         <v>26</v>
       </c>
       <c r="D11" t="n">
-        <v>0.106462636731356</v>
+        <v>0.106462636731411</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0487410136567529</v>
+        <v>0.0487410136567507</v>
       </c>
       <c r="F11" t="n">
-        <v>1.11233636514682</v>
+        <v>1.11233636514688</v>
       </c>
       <c r="G11" t="n">
-        <v>1.01099020338244</v>
+        <v>1.01099020338249</v>
       </c>
       <c r="H11" t="n">
-        <v>1.22384191764518</v>
+        <v>1.22384191764524</v>
       </c>
       <c r="I11" t="n">
-        <v>2.18425159314688</v>
+        <v>2.18425159314809</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0295609241188574</v>
+        <v>0.029560924118768</v>
       </c>
       <c r="K11" t="n">
-        <v>0.121324249928059</v>
+        <v>0.121324249928153</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0815968888875718</v>
+        <v>0.0815968888876704</v>
       </c>
       <c r="M11" t="n">
         <v>2423</v>
@@ -1009,31 +1009,31 @@
         <v>27</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0803909027867878</v>
+        <v>-0.0803909027867794</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0604450175529656</v>
+        <v>0.0604450175529679</v>
       </c>
       <c r="F12" t="n">
-        <v>0.922755568153506</v>
+        <v>0.922755568153514</v>
       </c>
       <c r="G12" t="n">
-        <v>0.819662066909791</v>
+        <v>0.819662066909794</v>
       </c>
       <c r="H12" t="n">
-        <v>1.03881571800493</v>
+        <v>1.03881571800494</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.32998394311565</v>
+        <v>-1.32998394311546</v>
       </c>
       <c r="J12" t="n">
-        <v>0.184575869121403</v>
+        <v>0.184575869121465</v>
       </c>
       <c r="K12" t="n">
-        <v>0.163038681450883</v>
+        <v>0.163038681450843</v>
       </c>
       <c r="L12" t="n">
-        <v>0.11363471473097</v>
+        <v>0.113634714730928</v>
       </c>
       <c r="M12" t="n">
         <v>2423</v>
@@ -1056,31 +1056,31 @@
         <v>28</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.032676942578395</v>
+        <v>-0.0326769425783871</v>
       </c>
       <c r="E13" t="n">
-        <v>0.054810189924245</v>
+        <v>0.0548101899242453</v>
       </c>
       <c r="F13" t="n">
-        <v>0.967851180595946</v>
+        <v>0.967851180595953</v>
       </c>
       <c r="G13" t="n">
-        <v>0.869267031611802</v>
+        <v>0.869267031611808</v>
       </c>
       <c r="H13" t="n">
-        <v>1.07761582311946</v>
+        <v>1.07761582311947</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.596183713713798</v>
+        <v>-0.59618371371365</v>
       </c>
       <c r="J13" t="n">
-        <v>0.551567227178729</v>
+        <v>0.551567227178828</v>
       </c>
       <c r="K13" t="n">
-        <v>0.13323948337564</v>
+        <v>0.133239483375626</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0803075434291138</v>
+        <v>0.0803075434290994</v>
       </c>
       <c r="M13" t="n">
         <v>2423</v>
@@ -1103,31 +1103,31 @@
         <v>29</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0875009251403683</v>
+        <v>0.0875009251402571</v>
       </c>
       <c r="E14" t="n">
-        <v>0.053519697319421</v>
+        <v>0.0535196973194222</v>
       </c>
       <c r="F14" t="n">
-        <v>1.09144327418072</v>
+        <v>1.0914432741806</v>
       </c>
       <c r="G14" t="n">
-        <v>0.98275278420788</v>
+        <v>0.982752784207768</v>
       </c>
       <c r="H14" t="n">
-        <v>1.21215471469205</v>
+        <v>1.21215471469192</v>
       </c>
       <c r="I14" t="n">
-        <v>1.63492937222977</v>
+        <v>1.63492937222766</v>
       </c>
       <c r="J14" t="n">
-        <v>0.102900724129861</v>
+        <v>0.102900724130304</v>
       </c>
       <c r="K14" t="n">
-        <v>0.116456125034343</v>
+        <v>0.116456125034409</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0765086626023849</v>
+        <v>0.0765086626024543</v>
       </c>
       <c r="M14" t="n">
         <v>2423</v>
@@ -1150,31 +1150,31 @@
         <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>0.229771992616202</v>
+        <v>0.229771992616183</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0459247365125042</v>
+        <v>0.045924736512511</v>
       </c>
       <c r="F15" t="n">
-        <v>1.25831307254713</v>
+        <v>1.25831307254711</v>
       </c>
       <c r="G15" t="n">
-        <v>1.14999720168142</v>
+        <v>1.14999720168138</v>
       </c>
       <c r="H15" t="n">
-        <v>1.37683099248239</v>
+        <v>1.37683099248238</v>
       </c>
       <c r="I15" t="n">
-        <v>5.0032294154511</v>
+        <v>5.00322941544994</v>
       </c>
       <c r="J15" t="n">
-        <v>0.000000871173118933427</v>
+        <v>0.000000871173118938366</v>
       </c>
       <c r="K15" t="n">
-        <v>0.16481259789665</v>
+        <v>0.164812597896568</v>
       </c>
       <c r="L15" t="n">
-        <v>0.126645431671497</v>
+        <v>0.126645431671411</v>
       </c>
       <c r="M15" t="n">
         <v>2423</v>
@@ -1221,7 +1221,7 @@
         <v>0.131645220883237</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0880994060012755</v>
+        <v>0.0880994060012753</v>
       </c>
       <c r="M16" t="n">
         <v>2423</v>
@@ -1244,31 +1244,31 @@
         <v>32</v>
       </c>
       <c r="D17" t="n">
-        <v>0.109248321993722</v>
+        <v>0.109248321993782</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0503286740601296</v>
+        <v>0.0503286740601288</v>
       </c>
       <c r="F17" t="n">
-        <v>1.11543930406504</v>
+        <v>1.1154393040651</v>
       </c>
       <c r="G17" t="n">
-        <v>1.01066054378745</v>
+        <v>1.01066054378752</v>
       </c>
       <c r="H17" t="n">
-        <v>1.23108084974845</v>
+        <v>1.23108084974852</v>
       </c>
       <c r="I17" t="n">
-        <v>2.17069740131042</v>
+        <v>2.17069740131163</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0305911067113104</v>
+        <v>0.0305911067112177</v>
       </c>
       <c r="K17" t="n">
-        <v>0.119599402662349</v>
+        <v>0.119599402662311</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0790389415383924</v>
+        <v>0.0790389415383526</v>
       </c>
       <c r="M17" t="n">
         <v>2423</v>
@@ -1291,31 +1291,31 @@
         <v>33</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0571703941844638</v>
+        <v>0.0571703941844687</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0515388909230864</v>
+        <v>0.0515388909230862</v>
       </c>
       <c r="F18" t="n">
-        <v>1.05883621455841</v>
+        <v>1.05883621455842</v>
       </c>
       <c r="G18" t="n">
-        <v>0.957101500499956</v>
+        <v>0.957101500499961</v>
       </c>
       <c r="H18" t="n">
-        <v>1.1713847785995</v>
+        <v>1.17138477859951</v>
       </c>
       <c r="I18" t="n">
-        <v>1.10926706338678</v>
+        <v>1.10926706338688</v>
       </c>
       <c r="J18" t="n">
-        <v>0.268045306449058</v>
+        <v>0.268045306449016</v>
       </c>
       <c r="K18" t="n">
-        <v>0.114388763901933</v>
+        <v>0.11438876390194</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0731411172891462</v>
+        <v>0.0731411172891537</v>
       </c>
       <c r="M18" t="n">
         <v>2423</v>
@@ -1338,31 +1338,31 @@
         <v>34</v>
       </c>
       <c r="D19" t="n">
-        <v>0.114320174465897</v>
+        <v>0.114320174465895</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0506937660087139</v>
+        <v>0.0506937660087144</v>
       </c>
       <c r="F19" t="n">
         <v>1.12111101854837</v>
       </c>
       <c r="G19" t="n">
-        <v>1.01507285991893</v>
+        <v>1.01507285991892</v>
       </c>
       <c r="H19" t="n">
         <v>1.23822630427824</v>
       </c>
       <c r="I19" t="n">
-        <v>2.25511307339537</v>
+        <v>2.25511307339532</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0247771718041909</v>
+        <v>0.0247771718041946</v>
       </c>
       <c r="K19" t="n">
-        <v>0.13143710652893</v>
+        <v>0.131437106528915</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0869625005379416</v>
+        <v>0.0869625005379256</v>
       </c>
       <c r="M19" t="n">
         <v>2423</v>
@@ -1385,31 +1385,31 @@
         <v>35</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0804812387856841</v>
+        <v>0.080481238785754</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0501071698555541</v>
+        <v>0.0501071698555526</v>
       </c>
       <c r="F20" t="n">
-        <v>1.08380851288772</v>
+        <v>1.0838085128878</v>
       </c>
       <c r="G20" t="n">
-        <v>0.982427416669358</v>
+        <v>0.98242741666943</v>
       </c>
       <c r="H20" t="n">
-        <v>1.19565157962527</v>
+        <v>1.19565157962535</v>
       </c>
       <c r="I20" t="n">
-        <v>1.60618208966283</v>
+        <v>1.60618208966427</v>
       </c>
       <c r="J20" t="n">
-        <v>0.109073364819711</v>
+        <v>0.109073364819394</v>
       </c>
       <c r="K20" t="n">
-        <v>0.11623867402713</v>
+        <v>0.116238674027224</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0762813800336761</v>
+        <v>0.0762813800337737</v>
       </c>
       <c r="M20" t="n">
         <v>2423</v>
@@ -1432,31 +1432,31 @@
         <v>36</v>
       </c>
       <c r="D21" t="n">
-        <v>0.124033849820352</v>
+        <v>0.124033849820208</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0531581468221926</v>
+        <v>0.053158146822191</v>
       </c>
       <c r="F21" t="n">
-        <v>1.13205419018159</v>
+        <v>1.13205419018143</v>
       </c>
       <c r="G21" t="n">
-        <v>1.02004208071574</v>
+        <v>1.02004208071559</v>
       </c>
       <c r="H21" t="n">
-        <v>1.25636649088875</v>
+        <v>1.25636649088857</v>
       </c>
       <c r="I21" t="n">
-        <v>2.33329898115578</v>
+        <v>2.33329898115315</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0202555335956162</v>
+        <v>0.0202555335957562</v>
       </c>
       <c r="K21" t="n">
-        <v>0.107951977980641</v>
+        <v>0.107951977980783</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0602638761745747</v>
+        <v>0.0602638761747245</v>
       </c>
       <c r="M21" t="n">
         <v>2423</v>
@@ -1479,31 +1479,31 @@
         <v>37</v>
       </c>
       <c r="D22" t="n">
-        <v>0.109714944817928</v>
+        <v>0.109714944817907</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0504243573576085</v>
+        <v>0.0504243573576011</v>
       </c>
       <c r="F22" t="n">
-        <v>1.11595991495834</v>
+        <v>1.11595991495832</v>
       </c>
       <c r="G22" t="n">
-        <v>1.01094264189377</v>
+        <v>1.01094264189376</v>
       </c>
       <c r="H22" t="n">
-        <v>1.23188643963117</v>
+        <v>1.23188643963112</v>
       </c>
       <c r="I22" t="n">
-        <v>2.17583228755563</v>
+        <v>2.17583228755554</v>
       </c>
       <c r="J22" t="n">
-        <v>0.030189941047064</v>
+        <v>0.0301899410470707</v>
       </c>
       <c r="K22" t="n">
-        <v>0.121239531514203</v>
+        <v>0.121239531514284</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0815083401198979</v>
+        <v>0.0815083401199829</v>
       </c>
       <c r="M22" t="n">
         <v>2423</v>
@@ -1526,31 +1526,31 @@
         <v>38</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0735635650225319</v>
+        <v>0.073563565022541</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0542079992120169</v>
+        <v>0.0542079992120188</v>
       </c>
       <c r="F23" t="n">
-        <v>1.07633695188006</v>
+        <v>1.07633695188007</v>
       </c>
       <c r="G23" t="n">
-        <v>0.967844240300714</v>
+        <v>0.967844240300719</v>
       </c>
       <c r="H23" t="n">
-        <v>1.19699140186287</v>
+        <v>1.19699140186289</v>
       </c>
       <c r="I23" t="n">
-        <v>1.35706106279282</v>
+        <v>1.35706106279294</v>
       </c>
       <c r="J23" t="n">
-        <v>0.175672722841881</v>
+        <v>0.175672722841843</v>
       </c>
       <c r="K23" t="n">
-        <v>0.130697152195713</v>
+        <v>0.13069715219569</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0867145676341862</v>
+        <v>0.0867145676341623</v>
       </c>
       <c r="M23" t="n">
         <v>2423</v>
@@ -1573,31 +1573,31 @@
         <v>39</v>
       </c>
       <c r="D24" t="n">
-        <v>0.17133237794436</v>
+        <v>0.171332377944374</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0459337037808752</v>
+        <v>0.0459337037808747</v>
       </c>
       <c r="F24" t="n">
-        <v>1.18688517792398</v>
+        <v>1.18688517792399</v>
       </c>
       <c r="G24" t="n">
-        <v>1.0846987715452</v>
+        <v>1.08469877154521</v>
       </c>
       <c r="H24" t="n">
-        <v>1.29869827691321</v>
+        <v>1.29869827691323</v>
       </c>
       <c r="I24" t="n">
-        <v>3.72999265989292</v>
+        <v>3.72999265989326</v>
       </c>
       <c r="J24" t="n">
-        <v>0.000221085195973295</v>
+        <v>0.000221085195973001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.142042121047898</v>
+        <v>0.142042121047915</v>
       </c>
       <c r="L24" t="n">
-        <v>0.103148030535403</v>
+        <v>0.103148030535421</v>
       </c>
       <c r="M24" t="n">
         <v>2423</v>
@@ -1620,31 +1620,31 @@
         <v>40</v>
       </c>
       <c r="D25" t="n">
-        <v>0.13878309589406</v>
+        <v>0.138783095894049</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0478648793384161</v>
+        <v>0.0478648793384113</v>
       </c>
       <c r="F25" t="n">
-        <v>1.14887487729777</v>
+        <v>1.14887487729776</v>
       </c>
       <c r="G25" t="n">
         <v>1.04599431683388</v>
       </c>
       <c r="H25" t="n">
-        <v>1.2618744312887</v>
+        <v>1.26187443128868</v>
       </c>
       <c r="I25" t="n">
-        <v>2.89947656428485</v>
+        <v>2.89947656428493</v>
       </c>
       <c r="J25" t="n">
-        <v>0.00395724927848374</v>
+        <v>0.00395724927848282</v>
       </c>
       <c r="K25" t="n">
-        <v>0.129635424066263</v>
+        <v>0.129635424066345</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0902838341969184</v>
+        <v>0.0902838341970045</v>
       </c>
       <c r="M25" t="n">
         <v>2423</v>
@@ -1667,31 +1667,31 @@
         <v>41</v>
       </c>
       <c r="D26" t="n">
-        <v>0.204483360817958</v>
+        <v>0.204483360817824</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0492578490716283</v>
+        <v>0.0492578490716318</v>
       </c>
       <c r="F26" t="n">
-        <v>1.22689104121254</v>
+        <v>1.22689104121237</v>
       </c>
       <c r="G26" t="n">
-        <v>1.11397865054216</v>
+        <v>1.113978650542</v>
       </c>
       <c r="H26" t="n">
-        <v>1.35124818260655</v>
+        <v>1.35124818260638</v>
       </c>
       <c r="I26" t="n">
-        <v>4.15128481393105</v>
+        <v>4.15128481392804</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0000427024631723652</v>
+        <v>0.0000427024631728979</v>
       </c>
       <c r="K26" t="n">
-        <v>0.206079172779566</v>
+        <v>0.206079172779385</v>
       </c>
       <c r="L26" t="n">
-        <v>0.162820666168196</v>
+        <v>0.162820666168006</v>
       </c>
       <c r="M26" t="n">
         <v>2423</v>
@@ -1714,31 +1714,31 @@
         <v>42</v>
       </c>
       <c r="D27" t="n">
-        <v>0.06004897074978</v>
+        <v>0.0600489707497388</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0486110737004043</v>
+        <v>0.0486110737004087</v>
       </c>
       <c r="F27" t="n">
-        <v>1.06188854675042</v>
+        <v>1.06188854675038</v>
       </c>
       <c r="G27" t="n">
-        <v>0.965384575012938</v>
+        <v>0.96538457501289</v>
       </c>
       <c r="H27" t="n">
-        <v>1.16803946831718</v>
+        <v>1.16803946831715</v>
       </c>
       <c r="I27" t="n">
-        <v>1.23529406323894</v>
+        <v>1.23529406323798</v>
       </c>
       <c r="J27" t="n">
-        <v>0.217513436910146</v>
+        <v>0.217513436910503</v>
       </c>
       <c r="K27" t="n">
-        <v>0.115319875555547</v>
+        <v>0.115319875555495</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0742281757862688</v>
+        <v>0.074228175786215</v>
       </c>
       <c r="M27" t="n">
         <v>2423</v>
@@ -1761,31 +1761,31 @@
         <v>43</v>
       </c>
       <c r="D28" t="n">
-        <v>0.067066066302547</v>
+        <v>0.0670660663025354</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0512238317407239</v>
+        <v>0.0512238317407246</v>
       </c>
       <c r="F28" t="n">
-        <v>1.06936612490683</v>
+        <v>1.06936612490682</v>
       </c>
       <c r="G28" t="n">
-        <v>0.967216767304288</v>
+        <v>0.967216767304276</v>
       </c>
       <c r="H28" t="n">
-        <v>1.18230364459603</v>
+        <v>1.18230364459602</v>
       </c>
       <c r="I28" t="n">
-        <v>1.3092746876495</v>
+        <v>1.30927468764926</v>
       </c>
       <c r="J28" t="n">
-        <v>0.191251607315322</v>
+        <v>0.191251607315404</v>
       </c>
       <c r="K28" t="n">
-        <v>0.141197593038244</v>
+        <v>0.141197593038234</v>
       </c>
       <c r="L28" t="n">
-        <v>0.101845461182853</v>
+        <v>0.101845461182843</v>
       </c>
       <c r="M28" t="n">
         <v>2423</v>
@@ -1808,10 +1808,10 @@
         <v>44</v>
       </c>
       <c r="D29" t="n">
-        <v>0.217753902294173</v>
+        <v>0.21775390229417</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0485503576675826</v>
+        <v>0.0485503576675829</v>
       </c>
       <c r="F29" t="n">
         <v>1.24328106134999</v>
@@ -1823,16 +1823,16 @@
         <v>1.3674020194121</v>
       </c>
       <c r="I29" t="n">
-        <v>4.48511427629643</v>
+        <v>4.48511427629636</v>
       </c>
       <c r="J29" t="n">
-        <v>0.00000973076214250006</v>
+        <v>0.00000973076214250306</v>
       </c>
       <c r="K29" t="n">
-        <v>0.181604312813004</v>
+        <v>0.181604312812994</v>
       </c>
       <c r="L29" t="n">
-        <v>0.144103701809826</v>
+        <v>0.144103701809816</v>
       </c>
       <c r="M29" t="n">
         <v>2423</v>
@@ -1855,31 +1855,31 @@
         <v>45</v>
       </c>
       <c r="D30" t="n">
-        <v>0.119163358282227</v>
+        <v>0.119163358282233</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0469274739994999</v>
+        <v>0.0469274739995</v>
       </c>
       <c r="F30" t="n">
-        <v>1.12655393517329</v>
+        <v>1.1265539351733</v>
       </c>
       <c r="G30" t="n">
-        <v>1.02755840666592</v>
+        <v>1.02755840666593</v>
       </c>
       <c r="H30" t="n">
-        <v>1.23508674603938</v>
+        <v>1.23508674603939</v>
       </c>
       <c r="I30" t="n">
-        <v>2.5393090257425</v>
+        <v>2.53930902574264</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0115147192613685</v>
+        <v>0.0115147192613638</v>
       </c>
       <c r="K30" t="n">
-        <v>0.151968547598487</v>
+        <v>0.15196854759848</v>
       </c>
       <c r="L30" t="n">
-        <v>0.11310996352618</v>
+        <v>0.113109963526173</v>
       </c>
       <c r="M30" t="n">
         <v>2423</v>
@@ -1902,31 +1902,31 @@
         <v>17</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.0918421369316321</v>
+        <v>-0.0918421369316365</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0527009858830992</v>
+        <v>0.052700985883099</v>
       </c>
       <c r="F31" t="n">
-        <v>0.912249148628441</v>
+        <v>0.912249148628437</v>
       </c>
       <c r="G31" t="n">
-        <v>0.822722703167914</v>
+        <v>0.822722703167911</v>
       </c>
       <c r="H31" t="n">
         <v>1.01151761823141</v>
       </c>
       <c r="I31" t="n">
-        <v>-1.74270244460617</v>
+        <v>-1.74270244460626</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0822539555211225</v>
+        <v>0.082253955521107</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0696194062913066</v>
+        <v>0.0696194062913135</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0249401122431491</v>
+        <v>0.0249401122431564</v>
       </c>
       <c r="M31" t="n">
         <v>2423</v>
@@ -1949,31 +1949,31 @@
         <v>18</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.0505044170735097</v>
+        <v>-0.0505044170734952</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0566975012565714</v>
+        <v>0.0566975012565719</v>
       </c>
       <c r="F32" t="n">
-        <v>0.950749729131609</v>
+        <v>0.950749729131623</v>
       </c>
       <c r="G32" t="n">
-        <v>0.850754633252187</v>
+        <v>0.850754633252199</v>
       </c>
       <c r="H32" t="n">
-        <v>1.06249794254824</v>
+        <v>1.06249794254825</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.890769715669895</v>
+        <v>-0.890769715669633</v>
       </c>
       <c r="J32" t="n">
-        <v>0.373711670634755</v>
+        <v>0.373711670634895</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0723609887918014</v>
+        <v>0.0723609887917779</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0238383328209109</v>
+        <v>0.0238383328208862</v>
       </c>
       <c r="M32" t="n">
         <v>2423</v>
@@ -1996,31 +1996,31 @@
         <v>19</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.116353582003435</v>
+        <v>-0.116353582003485</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0531500262962438</v>
+        <v>0.0531500262962412</v>
       </c>
       <c r="F33" t="n">
-        <v>0.89016042294116</v>
+        <v>0.890160422941115</v>
       </c>
       <c r="G33" t="n">
-        <v>0.802095473814755</v>
+        <v>0.802095473814719</v>
       </c>
       <c r="H33" t="n">
-        <v>0.987894339812453</v>
+        <v>0.987894339812398</v>
       </c>
       <c r="I33" t="n">
-        <v>-2.18915379937748</v>
+        <v>-2.18915379937853</v>
       </c>
       <c r="J33" t="n">
-        <v>0.029253326023092</v>
+        <v>0.0292533260230153</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0844230793282419</v>
+        <v>0.0844230793283361</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0394380861160458</v>
+        <v>0.0394380861161445</v>
       </c>
       <c r="M33" t="n">
         <v>2423</v>
@@ -2043,31 +2043,31 @@
         <v>20</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0514109494904019</v>
+        <v>0.0514109494904374</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0513754880920058</v>
+        <v>0.051375488092001</v>
       </c>
       <c r="F34" t="n">
-        <v>1.05275543370998</v>
+        <v>1.05275543371002</v>
       </c>
       <c r="G34" t="n">
-        <v>0.951909789918197</v>
+        <v>0.95190978991824</v>
       </c>
       <c r="H34" t="n">
-        <v>1.16428469897461</v>
+        <v>1.16428469897464</v>
       </c>
       <c r="I34" t="n">
-        <v>1.00069023963982</v>
+        <v>1.0006902396406</v>
       </c>
       <c r="J34" t="n">
-        <v>0.317641343697136</v>
+        <v>0.317641343696757</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0628728082371035</v>
+        <v>0.062872808237269</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0191058789514736</v>
+        <v>0.0191058789516469</v>
       </c>
       <c r="M34" t="n">
         <v>2423</v>
@@ -2090,31 +2090,31 @@
         <v>21</v>
       </c>
       <c r="D35" t="n">
-        <v>0.323206610701731</v>
+        <v>0.323206610701758</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0515919332737674</v>
+        <v>0.0515919332737665</v>
       </c>
       <c r="F35" t="n">
-        <v>1.3815507645928</v>
+        <v>1.38155076459284</v>
       </c>
       <c r="G35" t="n">
-        <v>1.24867928591979</v>
+        <v>1.24867928591983</v>
       </c>
       <c r="H35" t="n">
-        <v>1.52856104579408</v>
+        <v>1.52856104579412</v>
       </c>
       <c r="I35" t="n">
-        <v>6.26467337416236</v>
+        <v>6.26467337416298</v>
       </c>
       <c r="J35" t="n">
-        <v>0.00000000109667996199763</v>
+        <v>0.00000000109667996199369</v>
       </c>
       <c r="K35" t="n">
-        <v>0.192008363276259</v>
+        <v>0.192008363276296</v>
       </c>
       <c r="L35" t="n">
-        <v>0.15276305520682</v>
+        <v>0.152763055206859</v>
       </c>
       <c r="M35" t="n">
         <v>2423</v>
@@ -2140,7 +2140,7 @@
         <v>0.256934148922537</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0426205987706561</v>
+        <v>0.0426205987706526</v>
       </c>
       <c r="F36" t="n">
         <v>1.29295998114804</v>
@@ -2149,19 +2149,19 @@
         <v>1.18933910076052</v>
       </c>
       <c r="H36" t="n">
-        <v>1.40560880558065</v>
+        <v>1.40560880558064</v>
       </c>
       <c r="I36" t="n">
-        <v>6.02840308051781</v>
+        <v>6.02840308051832</v>
       </c>
       <c r="J36" t="n">
-        <v>0.00000000356649675378349</v>
+        <v>0.00000000356649675377296</v>
       </c>
       <c r="K36" t="n">
-        <v>0.196293113637801</v>
+        <v>0.196293113637934</v>
       </c>
       <c r="L36" t="n">
-        <v>0.164518655339761</v>
+        <v>0.164518655339899</v>
       </c>
       <c r="M36" t="n">
         <v>2423</v>
@@ -2184,31 +2184,31 @@
         <v>23</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.148078822856532</v>
+        <v>-0.148078822856472</v>
       </c>
       <c r="E37" t="n">
-        <v>0.059119832645093</v>
+        <v>0.0591198326450952</v>
       </c>
       <c r="F37" t="n">
-        <v>0.862363138337094</v>
+        <v>0.862363138337146</v>
       </c>
       <c r="G37" t="n">
-        <v>0.768009101616979</v>
+        <v>0.768009101617021</v>
       </c>
       <c r="H37" t="n">
-        <v>0.96830907445871</v>
+        <v>0.968309074458773</v>
       </c>
       <c r="I37" t="n">
-        <v>-2.50472330910467</v>
+        <v>-2.50472330910357</v>
       </c>
       <c r="J37" t="n">
-        <v>0.0127728101236738</v>
+        <v>0.0127728101237129</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0927498250777676</v>
+        <v>0.0927498250776853</v>
       </c>
       <c r="L37" t="n">
-        <v>0.042511216042986</v>
+        <v>0.0425112160428992</v>
       </c>
       <c r="M37" t="n">
         <v>2423</v>
@@ -2231,31 +2231,31 @@
         <v>24</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.129343019628338</v>
+        <v>-0.129343019628347</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0562702452409314</v>
+        <v>0.0562702452409311</v>
       </c>
       <c r="F38" t="n">
-        <v>0.878672511927813</v>
+        <v>0.878672511927805</v>
       </c>
       <c r="G38" t="n">
-        <v>0.786916842311605</v>
+        <v>0.786916842311598</v>
       </c>
       <c r="H38" t="n">
-        <v>0.98112702855559</v>
+        <v>0.98112702855558</v>
       </c>
       <c r="I38" t="n">
-        <v>-2.29860415703774</v>
+        <v>-2.29860415703791</v>
       </c>
       <c r="J38" t="n">
-        <v>0.022161679927215</v>
+        <v>0.0221616799272048</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0859345905271028</v>
+        <v>0.0859345905271161</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0381219383392897</v>
+        <v>0.0381219383393036</v>
       </c>
       <c r="M38" t="n">
         <v>2423</v>
@@ -2278,31 +2278,31 @@
         <v>25</v>
       </c>
       <c r="D39" t="n">
-        <v>0.382482411050048</v>
+        <v>0.382482411050047</v>
       </c>
       <c r="E39" t="n">
-        <v>0.041020403556816</v>
+        <v>0.0410204035568107</v>
       </c>
       <c r="F39" t="n">
         <v>1.4659190901533</v>
       </c>
       <c r="G39" t="n">
-        <v>1.35267270950637</v>
+        <v>1.35267270950638</v>
       </c>
       <c r="H39" t="n">
-        <v>1.58864650981247</v>
+        <v>1.58864650981246</v>
       </c>
       <c r="I39" t="n">
-        <v>9.32419912739971</v>
+        <v>9.32419912740089</v>
       </c>
       <c r="J39" t="n">
-        <v>0.000000000000000000412287025356128</v>
+        <v>0.000000000000000000412287025352263</v>
       </c>
       <c r="K39" t="n">
-        <v>0.236912776091852</v>
+        <v>0.236912776092031</v>
       </c>
       <c r="L39" t="n">
-        <v>0.209830348520999</v>
+        <v>0.209830348521184</v>
       </c>
       <c r="M39" t="n">
         <v>2423</v>
@@ -2325,31 +2325,31 @@
         <v>26</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3403689193751</v>
+        <v>0.340368919375103</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0420457149584399</v>
+        <v>0.042045714958443</v>
       </c>
       <c r="F40" t="n">
-        <v>1.40546599857025</v>
+        <v>1.40546599857026</v>
       </c>
       <c r="G40" t="n">
-        <v>1.29428616347669</v>
+        <v>1.29428616347668</v>
       </c>
       <c r="H40" t="n">
-        <v>1.5261962376473</v>
+        <v>1.52619623764731</v>
       </c>
       <c r="I40" t="n">
-        <v>8.09521064659116</v>
+        <v>8.09521064659065</v>
       </c>
       <c r="J40" t="n">
-        <v>0.00000000000000474096593882793</v>
+        <v>0.00000000000000474096593884562</v>
       </c>
       <c r="K40" t="n">
-        <v>0.206317311199086</v>
+        <v>0.206317311198976</v>
       </c>
       <c r="L40" t="n">
-        <v>0.178207715970721</v>
+        <v>0.178207715970607</v>
       </c>
       <c r="M40" t="n">
         <v>2423</v>
@@ -2372,31 +2372,31 @@
         <v>27</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.108539774049713</v>
+        <v>-0.108539774049674</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0570532798543068</v>
+        <v>0.0570532798543079</v>
       </c>
       <c r="F41" t="n">
-        <v>0.897143211088655</v>
+        <v>0.89714321108869</v>
       </c>
       <c r="G41" t="n">
-        <v>0.802226571776472</v>
+        <v>0.802226571776502</v>
       </c>
       <c r="H41" t="n">
-        <v>1.00329005485339</v>
+        <v>1.00329005485343</v>
       </c>
       <c r="I41" t="n">
-        <v>-1.90242829731935</v>
+        <v>-1.90242829731862</v>
       </c>
       <c r="J41" t="n">
-        <v>0.0579380942319131</v>
+        <v>0.057938094232009</v>
       </c>
       <c r="K41" t="n">
-        <v>0.092564548068468</v>
+        <v>0.092564548068425</v>
       </c>
       <c r="L41" t="n">
-        <v>0.048362821183551</v>
+        <v>0.0483628211835059</v>
       </c>
       <c r="M41" t="n">
         <v>2423</v>
@@ -2419,31 +2419,31 @@
         <v>28</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.00215558027118894</v>
+        <v>-0.0021555802711329</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0549929802714579</v>
+        <v>0.0549929802714624</v>
       </c>
       <c r="F42" t="n">
-        <v>0.997846741323536</v>
+        <v>0.997846741323592</v>
       </c>
       <c r="G42" t="n">
-        <v>0.895886255006383</v>
+        <v>0.895886255006425</v>
       </c>
       <c r="H42" t="n">
-        <v>1.11141131321733</v>
+        <v>1.1114113132174</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.0391973713835566</v>
+        <v>-0.0391973713825344</v>
       </c>
       <c r="J42" t="n">
-        <v>0.968757625752584</v>
+        <v>0.968757625753399</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0792512185025317</v>
+        <v>0.0792512185024012</v>
       </c>
       <c r="L42" t="n">
-        <v>0.0300287993658745</v>
+        <v>0.0300287993657371</v>
       </c>
       <c r="M42" t="n">
         <v>2423</v>
@@ -2466,31 +2466,31 @@
         <v>29</v>
       </c>
       <c r="D43" t="n">
-        <v>0.359164462149096</v>
+        <v>0.359164462149241</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0485344529884462</v>
+        <v>0.048534452988449</v>
       </c>
       <c r="F43" t="n">
-        <v>1.43213231376282</v>
+        <v>1.43213231376303</v>
       </c>
       <c r="G43" t="n">
-        <v>1.30217629037174</v>
+        <v>1.30217629037192</v>
       </c>
       <c r="H43" t="n">
-        <v>1.57505783148466</v>
+        <v>1.5750578314849</v>
       </c>
       <c r="I43" t="n">
-        <v>7.4001959439946</v>
+        <v>7.40019594399717</v>
       </c>
       <c r="J43" t="n">
-        <v>0.000000000000613132520200622</v>
+        <v>0.000000000000613132520190001</v>
       </c>
       <c r="K43" t="n">
-        <v>0.190333416624927</v>
+        <v>0.190333416624885</v>
       </c>
       <c r="L43" t="n">
-        <v>0.161657725130394</v>
+        <v>0.16165772513035</v>
       </c>
       <c r="M43" t="n">
         <v>2423</v>
@@ -2516,7 +2516,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>0.00000000000000000259398461634079</v>
+        <v>0.0000000000000000678001741182724</v>
       </c>
       <c r="F44" t="n">
         <v>2.71828182845905</v>
@@ -2528,7 +2528,7 @@
         <v>2.71828182845905</v>
       </c>
       <c r="I44" t="n">
-        <v>385507297807591936</v>
+        <v>14749224659151684</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -2560,31 +2560,31 @@
         <v>31</v>
       </c>
       <c r="D45" t="n">
-        <v>0.325554333781859</v>
+        <v>0.325554333781849</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0419386828525886</v>
+        <v>0.0419386828525838</v>
       </c>
       <c r="F45" t="n">
-        <v>1.38479807360882</v>
+        <v>1.38479807360881</v>
       </c>
       <c r="G45" t="n">
         <v>1.27552073570554</v>
       </c>
       <c r="H45" t="n">
-        <v>1.50343749888941</v>
+        <v>1.50343749888938</v>
       </c>
       <c r="I45" t="n">
-        <v>7.76262656903552</v>
+        <v>7.76262656903619</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0000000000000585751010172283</v>
+        <v>0.0000000000000585751010169588</v>
       </c>
       <c r="K45" t="n">
-        <v>0.230176887387022</v>
+        <v>0.230176887387195</v>
       </c>
       <c r="L45" t="n">
-        <v>0.200501166492644</v>
+        <v>0.200501166492824</v>
       </c>
       <c r="M45" t="n">
         <v>2423</v>
@@ -2607,31 +2607,31 @@
         <v>32</v>
       </c>
       <c r="D46" t="n">
-        <v>0.320179611011375</v>
+        <v>0.320179611011532</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0460252106508772</v>
+        <v>0.0460252106508818</v>
       </c>
       <c r="F46" t="n">
-        <v>1.37737513386098</v>
+        <v>1.3773751338612</v>
       </c>
       <c r="G46" t="n">
-        <v>1.25856250186163</v>
+        <v>1.25856250186181</v>
       </c>
       <c r="H46" t="n">
-        <v>1.50740408726014</v>
+        <v>1.50740408726039</v>
       </c>
       <c r="I46" t="n">
-        <v>6.95661370113191</v>
+        <v>6.95661370113464</v>
       </c>
       <c r="J46" t="n">
-        <v>0.0000000000116334568344271</v>
+        <v>0.0000000000116334568342228</v>
       </c>
       <c r="K46" t="n">
-        <v>0.186606852438124</v>
+        <v>0.186606852438033</v>
       </c>
       <c r="L46" t="n">
-        <v>0.15743452436101</v>
+        <v>0.157434524360916</v>
       </c>
       <c r="M46" t="n">
         <v>2423</v>
@@ -2654,31 +2654,31 @@
         <v>33</v>
       </c>
       <c r="D47" t="n">
-        <v>0.284630329441094</v>
+        <v>0.284630329440831</v>
       </c>
       <c r="E47" t="n">
-        <v>0.045667428069266</v>
+        <v>0.0456674280692797</v>
       </c>
       <c r="F47" t="n">
-        <v>1.32927054509832</v>
+        <v>1.32927054509797</v>
       </c>
       <c r="G47" t="n">
-        <v>1.21545947061986</v>
+        <v>1.21545947061951</v>
       </c>
       <c r="H47" t="n">
-        <v>1.45373846251318</v>
+        <v>1.45373846251283</v>
       </c>
       <c r="I47" t="n">
-        <v>6.23267701893308</v>
+        <v>6.23267701892545</v>
       </c>
       <c r="J47" t="n">
-        <v>0.00000000102077142876412</v>
+        <v>0.00000000102077142881007</v>
       </c>
       <c r="K47" t="n">
-        <v>0.173360895209732</v>
+        <v>0.173360895209232</v>
       </c>
       <c r="L47" t="n">
-        <v>0.143461182908807</v>
+        <v>0.143461182908289</v>
       </c>
       <c r="M47" t="n">
         <v>2423</v>
@@ -2701,31 +2701,31 @@
         <v>34</v>
       </c>
       <c r="D48" t="n">
-        <v>0.422204021448268</v>
+        <v>0.422204021448279</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0424788361069145</v>
+        <v>0.0424788361069176</v>
       </c>
       <c r="F48" t="n">
-        <v>1.52531969087231</v>
+        <v>1.52531969087233</v>
       </c>
       <c r="G48" t="n">
-        <v>1.4034668579443</v>
+        <v>1.40346685794431</v>
       </c>
       <c r="H48" t="n">
-        <v>1.65775212018234</v>
+        <v>1.65775212018237</v>
       </c>
       <c r="I48" t="n">
-        <v>9.93916171303816</v>
+        <v>9.9391617130377</v>
       </c>
       <c r="J48" t="n">
-        <v>0.00000000000000000000440796816441932</v>
+        <v>0.00000000000000000000440796816443572</v>
       </c>
       <c r="K48" t="n">
-        <v>0.275920406443726</v>
+        <v>0.27592040644362</v>
       </c>
       <c r="L48" t="n">
-        <v>0.247160235671631</v>
+        <v>0.247160235671521</v>
       </c>
       <c r="M48" t="n">
         <v>2423</v>
@@ -2748,31 +2748,31 @@
         <v>35</v>
       </c>
       <c r="D49" t="n">
-        <v>0.318209342806131</v>
+        <v>0.318209342806115</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0433714250423438</v>
+        <v>0.0433714250423475</v>
       </c>
       <c r="F49" t="n">
-        <v>1.37466400712848</v>
+        <v>1.37466400712846</v>
       </c>
       <c r="G49" t="n">
-        <v>1.26263568507989</v>
+        <v>1.26263568507986</v>
       </c>
       <c r="H49" t="n">
-        <v>1.49663212819379</v>
+        <v>1.49663212819378</v>
       </c>
       <c r="I49" t="n">
-        <v>7.33684315180931</v>
+        <v>7.33684315180833</v>
       </c>
       <c r="J49" t="n">
-        <v>0.000000000000939542445776589</v>
+        <v>0.000000000000939542445782785</v>
       </c>
       <c r="K49" t="n">
-        <v>0.188917362572713</v>
+        <v>0.188917362572591</v>
       </c>
       <c r="L49" t="n">
-        <v>0.16019151916383</v>
+        <v>0.160191519163704</v>
       </c>
       <c r="M49" t="n">
         <v>2423</v>
@@ -2795,31 +2795,31 @@
         <v>36</v>
       </c>
       <c r="D50" t="n">
-        <v>0.259178088950733</v>
+        <v>0.259178088950706</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0472971713652041</v>
+        <v>0.0472971713652062</v>
       </c>
       <c r="F50" t="n">
-        <v>1.29586456344005</v>
+        <v>1.29586456344002</v>
       </c>
       <c r="G50" t="n">
-        <v>1.18113475489766</v>
+        <v>1.18113475489762</v>
       </c>
       <c r="H50" t="n">
-        <v>1.42173867953381</v>
+        <v>1.42173867953377</v>
       </c>
       <c r="I50" t="n">
-        <v>5.47977989951017</v>
+        <v>5.47977989950934</v>
       </c>
       <c r="J50" t="n">
-        <v>0.0000000745919585080167</v>
+        <v>0.0000000745919585083395</v>
       </c>
       <c r="K50" t="n">
-        <v>0.149080010552903</v>
+        <v>0.149080010552908</v>
       </c>
       <c r="L50" t="n">
-        <v>0.113711698033097</v>
+        <v>0.113711698033102</v>
       </c>
       <c r="M50" t="n">
         <v>2423</v>
@@ -2842,31 +2842,31 @@
         <v>37</v>
       </c>
       <c r="D51" t="n">
-        <v>0.437723407576445</v>
+        <v>0.437723407576535</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0431700614576253</v>
+        <v>0.0431700614576249</v>
       </c>
       <c r="F51" t="n">
-        <v>1.54917635771215</v>
+        <v>1.54917635771229</v>
       </c>
       <c r="G51" t="n">
-        <v>1.42348784248439</v>
+        <v>1.42348784248452</v>
       </c>
       <c r="H51" t="n">
-        <v>1.68596268662589</v>
+        <v>1.68596268662604</v>
       </c>
       <c r="I51" t="n">
-        <v>10.1395131903183</v>
+        <v>10.1395131903205</v>
       </c>
       <c r="J51" t="n">
-        <v>0.000000000000000000000507220230059779</v>
+        <v>0.00000000000000000000050722023005042</v>
       </c>
       <c r="K51" t="n">
-        <v>0.257082321106857</v>
+        <v>0.257082321106822</v>
       </c>
       <c r="L51" t="n">
-        <v>0.230770653312725</v>
+        <v>0.230770653312689</v>
       </c>
       <c r="M51" t="n">
         <v>2423</v>
@@ -2889,31 +2889,31 @@
         <v>38</v>
       </c>
       <c r="D52" t="n">
-        <v>0.364156289156208</v>
+        <v>0.364156289156108</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0438826655809451</v>
+        <v>0.0438826655809439</v>
       </c>
       <c r="F52" t="n">
-        <v>1.43929914342924</v>
+        <v>1.4392991434291</v>
       </c>
       <c r="G52" t="n">
-        <v>1.32067935174321</v>
+        <v>1.32067935174308</v>
       </c>
       <c r="H52" t="n">
-        <v>1.56857303897558</v>
+        <v>1.56857303897542</v>
       </c>
       <c r="I52" t="n">
-        <v>8.2984085933543</v>
+        <v>8.29840859335225</v>
       </c>
       <c r="J52" t="n">
-        <v>0.00000000000000133225009393287</v>
+        <v>0.00000000000000133225009395271</v>
       </c>
       <c r="K52" t="n">
-        <v>0.240950903675358</v>
+        <v>0.240950903675438</v>
       </c>
       <c r="L52" t="n">
-        <v>0.211354952671874</v>
+        <v>0.211354952671957</v>
       </c>
       <c r="M52" t="n">
         <v>2423</v>
@@ -2936,31 +2936,31 @@
         <v>39</v>
       </c>
       <c r="D53" t="n">
-        <v>0.573424971905982</v>
+        <v>0.573424971905912</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0366932763597124</v>
+        <v>0.0366932763597092</v>
       </c>
       <c r="F53" t="n">
-        <v>1.77433369952644</v>
+        <v>1.77433369952632</v>
       </c>
       <c r="G53" t="n">
-        <v>1.65120636363112</v>
+        <v>1.65120636363101</v>
       </c>
       <c r="H53" t="n">
-        <v>1.90664240801007</v>
+        <v>1.90664240800993</v>
       </c>
       <c r="I53" t="n">
-        <v>15.6275216822987</v>
+        <v>15.6275216822981</v>
       </c>
       <c r="J53" t="n">
-        <v>0.0000000000000000000000000000000000000000000087238207878443</v>
+        <v>0.00000000000000000000000000000000000000000000872382078789347</v>
       </c>
       <c r="K53" t="n">
-        <v>0.402861580753087</v>
+        <v>0.40286158075319</v>
       </c>
       <c r="L53" t="n">
-        <v>0.38166877672971</v>
+        <v>0.381668776729817</v>
       </c>
       <c r="M53" t="n">
         <v>2423</v>
@@ -2983,31 +2983,31 @@
         <v>40</v>
       </c>
       <c r="D54" t="n">
-        <v>0.660727176746937</v>
+        <v>0.660727176747001</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0359308183974601</v>
+        <v>0.0359308183974599</v>
       </c>
       <c r="F54" t="n">
-        <v>1.93619978206735</v>
+        <v>1.93619978206747</v>
       </c>
       <c r="G54" t="n">
-        <v>1.80453469651468</v>
+        <v>1.8045346965148</v>
       </c>
       <c r="H54" t="n">
-        <v>2.07747160712304</v>
+        <v>2.07747160712317</v>
       </c>
       <c r="I54" t="n">
-        <v>18.3888707860226</v>
+        <v>18.3888707860245</v>
       </c>
       <c r="J54" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000147776448089217</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000147776448086207</v>
       </c>
       <c r="K54" t="n">
-        <v>0.470782437015928</v>
+        <v>0.470782437015908</v>
       </c>
       <c r="L54" t="n">
-        <v>0.452039314993575</v>
+        <v>0.452039314993554</v>
       </c>
       <c r="M54" t="n">
         <v>2423</v>
@@ -3030,31 +3030,31 @@
         <v>41</v>
       </c>
       <c r="D55" t="n">
-        <v>0.32749008122727</v>
+        <v>0.327490081227227</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0492246313104326</v>
+        <v>0.0492246313104363</v>
       </c>
       <c r="F55" t="n">
-        <v>1.38748128911815</v>
+        <v>1.38748128911809</v>
       </c>
       <c r="G55" t="n">
-        <v>1.2598715909919</v>
+        <v>1.25987159099183</v>
       </c>
       <c r="H55" t="n">
-        <v>1.52801630056387</v>
+        <v>1.52801630056381</v>
       </c>
       <c r="I55" t="n">
-        <v>6.65297174420609</v>
+        <v>6.6529717442047</v>
       </c>
       <c r="J55" t="n">
-        <v>0.0000000000985879612176724</v>
+        <v>0.0000000000985879612185114</v>
       </c>
       <c r="K55" t="n">
-        <v>0.199723224392525</v>
+        <v>0.199723224392426</v>
       </c>
       <c r="L55" t="n">
-        <v>0.164477874171471</v>
+        <v>0.164477874171367</v>
       </c>
       <c r="M55" t="n">
         <v>2423</v>
@@ -3077,31 +3077,31 @@
         <v>42</v>
       </c>
       <c r="D56" t="n">
-        <v>0.11506799781603</v>
+        <v>0.115067997815956</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0456914053344255</v>
+        <v>0.0456914053344252</v>
       </c>
       <c r="F56" t="n">
-        <v>1.12194972510922</v>
+        <v>1.12194972510914</v>
       </c>
       <c r="G56" t="n">
-        <v>1.02584108143272</v>
+        <v>1.02584108143264</v>
       </c>
       <c r="H56" t="n">
-        <v>1.22706256208283</v>
+        <v>1.22706256208274</v>
       </c>
       <c r="I56" t="n">
-        <v>2.51837291879779</v>
+        <v>2.51837291879618</v>
       </c>
       <c r="J56" t="n">
-        <v>0.0121310970440708</v>
+        <v>0.0121310970441253</v>
       </c>
       <c r="K56" t="n">
-        <v>0.117082319096072</v>
+        <v>0.117082319096145</v>
       </c>
       <c r="L56" t="n">
-        <v>0.0841665283606182</v>
+        <v>0.0841665283606939</v>
       </c>
       <c r="M56" t="n">
         <v>2423</v>
@@ -3124,31 +3124,31 @@
         <v>43</v>
       </c>
       <c r="D57" t="n">
-        <v>0.356800391974807</v>
+        <v>0.356800391974848</v>
       </c>
       <c r="E57" t="n">
-        <v>0.046778736535602</v>
+        <v>0.0467787365356018</v>
       </c>
       <c r="F57" t="n">
-        <v>1.42875065129287</v>
+        <v>1.42875065129293</v>
       </c>
       <c r="G57" t="n">
-        <v>1.30357966449888</v>
+        <v>1.30357966449893</v>
       </c>
       <c r="H57" t="n">
-        <v>1.56594067793664</v>
+        <v>1.56594067793671</v>
       </c>
       <c r="I57" t="n">
-        <v>7.62740549230645</v>
+        <v>7.62740549230734</v>
       </c>
       <c r="J57" t="n">
-        <v>0.000000000000139268801865753</v>
+        <v>0.000000000000139268801864891</v>
       </c>
       <c r="K57" t="n">
-        <v>0.195463269117481</v>
+        <v>0.195463269117451</v>
       </c>
       <c r="L57" t="n">
-        <v>0.165665612418128</v>
+        <v>0.165665612418097</v>
       </c>
       <c r="M57" t="n">
         <v>2423</v>
@@ -3174,7 +3174,7 @@
         <v>0.473214727649378</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0410688358071084</v>
+        <v>0.04106883580711</v>
       </c>
       <c r="F58" t="n">
         <v>1.60514601520465</v>
@@ -3183,19 +3183,19 @@
         <v>1.48100336806705</v>
       </c>
       <c r="H58" t="n">
-        <v>1.73969471351717</v>
+        <v>1.73969471351718</v>
       </c>
       <c r="I58" t="n">
-        <v>11.5224772835531</v>
+        <v>11.5224772835526</v>
       </c>
       <c r="J58" t="n">
-        <v>0.00000000000000000000000000371076199017861</v>
+        <v>0.0000000000000000000000000037107619901939</v>
       </c>
       <c r="K58" t="n">
-        <v>0.296872237730461</v>
+        <v>0.296872237730403</v>
       </c>
       <c r="L58" t="n">
-        <v>0.270830468757515</v>
+        <v>0.270830468757455</v>
       </c>
       <c r="M58" t="n">
         <v>2423</v>
@@ -3218,31 +3218,31 @@
         <v>45</v>
       </c>
       <c r="D59" t="n">
-        <v>0.602903019451843</v>
+        <v>0.602903019451917</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0371284504034076</v>
+        <v>0.0371284504034192</v>
       </c>
       <c r="F59" t="n">
-        <v>1.82741613211986</v>
+        <v>1.82741613211999</v>
       </c>
       <c r="G59" t="n">
-        <v>1.69915531943643</v>
+        <v>1.69915531943652</v>
       </c>
       <c r="H59" t="n">
-        <v>1.96535871778897</v>
+        <v>1.96535871778916</v>
       </c>
       <c r="I59" t="n">
-        <v>16.2383027813224</v>
+        <v>16.2383027813193</v>
       </c>
       <c r="J59" t="n">
-        <v>0.0000000000000000000000000000000000000000000000367452876346555</v>
+        <v>0.0000000000000000000000000000000000000000000000367452876358212</v>
       </c>
       <c r="K59" t="n">
-        <v>0.426227495273927</v>
+        <v>0.426227495273619</v>
       </c>
       <c r="L59" t="n">
-        <v>0.404930262565754</v>
+        <v>0.404930262565434</v>
       </c>
       <c r="M59" t="n">
         <v>2423</v>
